--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,10 +1015,8 @@
           <t>США</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1231911790</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1231911790</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1060,6 +1058,425 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/optibond-fl-adgeziv-butylochka-8-ml-kerr.html</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OptiBond FL адгезив 8 мл Kerr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KERR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>США</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1231911790</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Купить OptiBond FL - адгезив, бутылочка (8 мл), 25882Е, Kerr | Dental First</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>адгезив, стоматология, композитные реставрации, кариес, керамика, стоматологические материалы, фиксация, рентгеноконтрастность, зубные материалы</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>OptiBond FL - адгезив, бутылочка (8 мл), 25882Е, Kerr в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Максимальная надёжность стоматологической фиксации</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>OptiBond FL – двухкомпонентный универсальный адгезив IV поколения с высокой защищённостью от микроподтеканий, насыщен фтором и рентгеноконтрастен, что обеспечивает надёжное соединение с различными поверхностями и снижение необходимости использования нескольких слоёв препаратов.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>#Область применения
+Используется для прямых светоотверждаемых композитных реставраций, особенно при глубоких кариозных полостях и реставрациях классов IV и V. Также подходит для ремонта керамических поверхностей и в качестве прокладки под амальгаму.
+#Упаковка
+Комплект включает 8-миллилитровую бутылочку адгезива OptiBond FL.
+#Преимущества использования
+Этот препарат награждён престижной наградой в каталоге Reality 2020 и отмечен сертификатом «Гарантия долговечности».
+#Инструкция по применению
+Рекомендуется использовать согласно техническим рекомендациям производителя, при этом активаторы содержатся в растворе этанола, что облегчает нанесение и сокращает количество слоёв.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/optibond-fl-adgezivnaya-sistema-26684e-kerr.html</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OptiBond FL №26684E адгезивный комплект Kerr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KERR</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>США</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1911717</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Купить Optibond FL №26684Е адгезивная система (праймер OptiBond FL 8мл, адгезив OptiBond FL 8мл, 1х3г протрав. геля, аксессуары), Kerr | Dental First</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>дентальная адгезия, протравливание, композит, стоматологический материал, стоматологические системы, профессиональный уход, изоляция полости, гидроизоляция зуба, Kerr, протравочный гель</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Optibond FL №26684Е адгезивная система (праймер OptiBond FL 8мл, адгезив OptiBond FL 8мл, 1х3г протрав. геля, аксессуары), Kerr в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Надежный выбор для долгосрочной фиксации и блестящей улыбки</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>OptiBond FL — это проверенная временем двухкомпонентная система для тотального протравливания. Используется более 19 лет, подтверждая высокое качество и надежность в долгосрочной клинике. Он признан стандартом в мировой стоматологии.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>#Подготовка к применению
+Перед работой очистите полость пастой без фтора, выберите оттенок композита и подготовьте изоляцию с помощью коффердама.
+#Обработка поверхности
+Протравите эмаль 30 секунд, дентин — 15 секунд гелем Kerr Gel Etchant (37,5 % фосфорной кислоты). Тщательно смойте. Стремитесь к сухому, но не пересушенному дентину.
+#Нанесение праймера и адгезива
+Нанесите одну каплю праймера на палитру, аккуратно распределите по эмали и дентину. Через 15 секунд, раздуйте воздухом, избегая пересушивания. Затем встряхните и нанесите адгезив апликатором, удерживая 15 секунд. Полимеризуйте 20 секунд, после чего заполните полость выбранным композитом.
+#Инструкции по эксплуатации и хранению
+Следуйте рекомендациям по смешиванию и полимеризации. Храните при комнатной температуре в недоступном для детей месте, избегайте прямого солнца.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/arti-spray-bk-288-kopirka-aerozol-baush.html</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Артискрей ВК 288 - артикуляционный спрей 75 мл</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bausch</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Германия</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>656</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Купить Arti-Spray ВК 288 артикуляционный спрей (копирка-аэрозоль) зеленый 75мл, Bausch | Dental First</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>артикуляционный спрей, контроль контактов, подгонка протезов, окклюзионный индикатор, коронки и мосты, стоматологический контроль, проверка смыкания, стоматологические материалы, Arti-Spray, Bausch</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Arti-Spray ВК 288 артикуляционный спрей (копирка-аэрозоль) зеленый 75мл, Bausch в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Точное соответствие окклюзии — легко и быстро!</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Bausch Arti-Spray ВК 288 — это многофункциональный цветной индикатор, предназначенный для проверки точности окклюзионных контактов, а также подгонки коронок и мостов. Легко наносится в тонкий слой и легко смывается водой, не вызывая дискомфорта.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>#Подготовка к использованию
+Перед применением энергично встряхните флакон, затем равномерно распылите тонкий слой краски на внутренние поверхности мостов или коронок, а также на окклюзионные поверхности. Расстояние распыления — около 3-5 см. После контакта зубных рядов или примерки протезов окрашенные зоны проявляют дефекты, что облегчает их выявление. Места контакта можно дополнительно пометить специальными карандашами или фольгой Bausch Arti-Fol. Также спрей подходит для контроля аппроксимальных контактов при подгонке протезов. Средство изготовлено из физиологически нейтральных веществ, безопасных для полости рта.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/lotok-205x115mm-neperforirovannyy.html</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Лоток стерилизационный HLW 205x115мм, рифленый</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>HLW Dental</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Германия</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1231916150</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Купить Лоток 205x115мм (неперфорированный) | Dental First</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>стерилизация, стоматологические инструменты, медицинский лоток, стерильность, рифленый лоток, дезинфекция, хранение инструментов, стерилизация инструментов, лоток для инструментов, HLW</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Лоток 205x115мм (неперфорированный) в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Стерилизуйте и храните инструменты безопасно и удобно.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>HLW стерилизационный лоток 205x115 мм предназначен для безопасного хранения и стерилизации стоматологических инструментов. Оснащен рифленым основанием с шестью выемками для упорядоченного размещения инструментов. Гладкие края предотвращают травмирование, подходит для многократной стерилизации.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>#Использование
+Лоток используется для дезинфекции и хранения стоматологических инструментов и расходных материалов в стерильных условиях.
+#Особенности
+Рифленое основание с выемками для эффективного упорядочивания инструментов. Лоток безопасен для многократной стерилизации разными методами.
+#Преимущества
+Благодаря гладким краям лоток обеспечивает безопасность при работе и удобство в эксплуатации. Идеален для длительного использования в медицинской практике.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/zerkala-hr-front-razmer-0/14mm-ploskoe-upakovka-6-sht-r-and-214der-germaniya-11808.html</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Зеркала плоские HR FRONT 14мм 6 шт RÖDER Германия</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Roder Dentalinstrumente</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Германия</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1231912648</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Купить Зеркала HR FRONT, размер 0/14мм, плоское, (упаковка 6 шт) RÖDER (ГЕРМАНИЯ) | Dental First</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>стоматологические зеркала, плоские зеркала, стоматологическое оборудование, RÖDER, Германия, стоматология, профессиональные зеркала, медицинское оборудование, стеклянные зеркала, оборудование для стоматологии</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Зеркала HR FRONT, размер 0/14мм, плоское, (упаковка 6 шт) RÖDER (ГЕРМАНИЯ) в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Качественные стоматологические зеркала для профессиональной работы</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Плоские зеркала HR FRONT с толщиной 14 мм, поставляются в упаковке по 6 штук. Эти качественные зеркала идеально подходят для современных стоматологических кабинетов, обеспечивая четкое отображение и долговечность при эксплуатации.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>#Подготовка перед использованием
+Перед установкой убедитесь, что поверхность чистая и сухая. Проверьте комплектацию и целостность упаковки. Ознакомьтесь с инструкцией по монтажу для правильной установки.
+#Общие характеристики
+Данная модель представляет собой плоские зеркала толщиной 14 мм, изготовленные из высококачественного стекла. Упакованы по 6 штук, что удобно для профессиональной эксплуатации.
+#Установка и монтаж
+Зеркала легко устанавливаются на стоматологическую лампу или держатели. Используйте рекомендуемые закрепляющие элементы для надежного крепления. Убедитесь, что установка произведена правильно для обеспечения безопасности и долговечности.
+#Уход и хранение
+Реставрируйте поверхность зеркал мягкими средствами и избегайте использования абразивных материалов. Храните в герметичной упаковке, чтобы избежать повреждений и загрязнений. Регулярная чистка помогает сохранить качество изображения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/pulpoekstraktory-nervnadeln-430-sterilnye-vdw.html</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Пульпоэкстрактор Nervnadeln 430 21мм XXF 2 стерильный</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VDW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Германия</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1912607</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Купить Пульпоэкстракторы Nervnadeln №430 21мм XXF/2 стерильные (10шт) (V040333021430), VDW | Dental First</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>эндодонтия, пульпоэкстрактор, стоматологические инструменты, стерильные инструменты, удаление пульпы, стоматология, корневые каналы, Nervnadeln, медицинские инструменты, эндодонтический лечение</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Пульпоэкстракторы Nervnadeln №430 21мм XXF/2 стерильные (10шт) (V040333021430), VDW в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Надежные инструменты для точного удаления пульпы!</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Пульпоэкстрактор Nervnadeln №430 длиной 21 мм предназначен для безопасного и эффективного удаления пульпы в эндодонтии. Стерильные инструменты обеспечивают соблюдение гигиенических требований и удобство при работе.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>#Общий обзор и применение
+Пульпоэкстракторы Nervnadeln предназначены для atraumaticного удаления пульпы во время эндодонтических процедур. Инструменты отлично подходят как для профессиональной стоматологической практики, так и для клиник.
+#Особенности изделия
+Каждый пульпоэкстрактор выполняется из стерильных материалов и имеет длину 21 мм, что обеспечивает легкий доступ к труднодоступным участкам корневых каналов. XXF/2 обозначает размеры и конфигурацию.
+#Подготовка и использование
+Перед использованием убедитесь в правильном подборе размера инструмента. После однократного использования изделие утилизируется в соответствии с медицинскими стандартами безопасности. Инструменты хранятся в аккуратных блистерах по 10 штук для удобства хранения и транспортировки.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://el-dent.ru/id/profile04-15-21mm-maillefer.html</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ProFile 04 №15 21мм Maillefer 6шт</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dentsply Sirona</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>США</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0001910651</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Купить ProFile.04 №15 21мм (6шт.), Maillefer | Dental First</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>эндодонтические инструменты, никель-титановые файлы, каналовидные инструменты, стоматологическая техника, корневой канал, гибкие инструменты, расширение каналов, Maillefer, ProFile</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ProFile.04 №15 21мм (6шт.), Maillefer в интернет-магазине Dental First. Каталог включает стоматологические товары в широком диапазоне цен. Помощь специалистов, быстрая доставка по всей России.| Dental First</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Эффективное и безопасное расширение корневых каналов</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ProFile 04 №15 — это современные никель-титановые вращающиеся инструменты для эндодонтии, отличающиеся высокой гибкостью и безопасностью благодаря особым характеристикам для эффективной обработки каналов.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Инструменты изготовлены из никель-титанового сплава для высокой пластичности и способности обрабатывать изгибы каналов до 90°. Они имеют конусность 4 и 6 %, обеспечивающие безопасность работы, U-образное поперечное сечение без острых граней для удаления опилок и тупую верхушку для безопасного проникновения без перфорации.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
